--- a/config_debug/sys_3dby_xyxtg_config.xlsx
+++ b/config_debug/sys_3dby_xyxtg_config.xlsx
@@ -176,23 +176,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>xxc_icon_xyxxl_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>西游消消乐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xxc_icon_csxxl_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xxc_icon_shxxl_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xxc_icon_xxl_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -265,6 +249,22 @@
       </rPr>
       <t>_xyxtg</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxc_icon_xxl_1_xyxtg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxc_icon_shxxl_1_xyxtg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxc_icon_xyxxl_1_xyxtg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxc_icon_csxxl_1_xyxtg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -662,7 +662,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -691,7 +691,7 @@
         <v>44</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -712,13 +712,13 @@
         <v>4</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>45</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -739,13 +739,13 @@
         <v>6</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>46</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -766,13 +766,13 @@
         <v>10</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>48</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -793,13 +793,13 @@
         <v>8</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>47</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
